--- a/production/tbs/templates/IMT_EXT1.xlsx
+++ b/production/tbs/templates/IMT_EXT1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dev\imt_gent\production\tbs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imt\production\tbs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04DACB8-A099-4C6B-8FAD-6703A50F0267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F344A8D8-F2E0-4F9C-B4B0-48B307C27735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,15 +19,7 @@
   <definedNames>
     <definedName name="the_named_cell">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -52,9 +44,6 @@
     <t>[a.EXT_NAME]</t>
   </si>
   <si>
-    <t>[a.SEX]</t>
-  </si>
-  <si>
     <t>Department of Social Welfare and Development</t>
   </si>
   <si>
@@ -94,9 +83,6 @@
     <t>Ext. Name</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>Youth Development Sessions                       (indicate # of children)</t>
   </si>
   <si>
@@ -134,6 +120,12 @@
   </si>
   <si>
     <t>External Interventions (Other Government Agencies)</t>
+  </si>
+  <si>
+    <t>LOWB</t>
+  </si>
+  <si>
+    <t>[a.LOWB]</t>
   </si>
 </sst>
 </file>
@@ -272,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -349,17 +341,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -400,26 +381,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -428,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -448,9 +409,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -461,14 +419,11 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -497,50 +452,53 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,7 +847,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,83 +859,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="8"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="4"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -990,9 +948,9 @@
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="4"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1001,77 +959,77 @@
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="H7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="I7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="18"/>
+      <c r="L7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:14" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38" t="s">
-        <v>31</v>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="39" t="s">
+        <v>29</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="37"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="41"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1079,16 +1037,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -1102,39 +1060,38 @@
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="16" t="s">
+      <c r="J10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="L10" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J11" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="15">
-        <f ca="1">SUM( K10                        : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="K11" s="14">
+        <f ca="1">SUM( K10                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
-      <c r="L11" s="15">
-        <f ca="1">SUM( L10                        : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="L11" s="14">
+        <f ca="1">SUM( L10                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
-      <c r="M11" s="15">
-        <f ca="1">SUM( M10                        : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+      <c r="M11" s="14">
+        <f ca="1">SUM( M10                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:M1"/>
@@ -1152,6 +1109,7 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/production/tbs/templates/IMT_EXT1.xlsx
+++ b/production/tbs/templates/IMT_EXT1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\imt\production\tbs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F344A8D8-F2E0-4F9C-B4B0-48B307C27735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30546883-3962-4850-A2D1-A62C8739237B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R_A1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="the_named_cell">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>This sheet was hidden in the template, and it becomes visible.</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>[a.LOWB]</t>
+  </si>
+  <si>
+    <t>Other Interventions</t>
+  </si>
+  <si>
+    <t>[a.col3;ope=tbs:num]</t>
   </si>
 </sst>
 </file>
@@ -425,6 +431,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -464,12 +491,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -482,23 +503,8 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -847,86 +853,86 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="8" width="16.5703125" customWidth="1"/>
-    <col min="12" max="13" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="8" width="16.5546875" customWidth="1"/>
+    <col min="12" max="13" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -943,7 +949,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
@@ -958,80 +964,85 @@
       <c r="M6" s="7"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:14" s="10" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="39" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" s="41" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="10" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>ROW()-9</f>
         <v>1</v>
@@ -1066,34 +1077,39 @@
       <c r="K10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="M10" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N10" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="J11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="14">
-        <f ca="1">SUM( K10                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( K10                             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="L11" s="14">
-        <f ca="1">SUM( L10                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( L10                             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
       <c r="M11" s="14">
-        <f ca="1">SUM( M10                           : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <f ca="1">SUM( M10                             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
         <v>0</v>
       </c>
+      <c r="N11" s="14">
+        <f ca="1">SUM( N10                             : INDIRECT(ADDRESS(ROW()-1,COLUMN())) )</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="L7:M7"/>
+  <mergeCells count="19">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
@@ -1110,6 +1126,9 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="I7:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1126,14 +1145,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
